--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Projects\excel4j\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1B61EA-EDC0-4DC2-8884-45907C20F950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204688A4-1FEF-4C4F-989A-D6B1CC810948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DBF98241-6752-4E53-86CB-DFFA1B9A0C84}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{DBF98241-6752-4E53-86CB-DFFA1B9A0C84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t xml:space="preserve">Fruit </t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -95,8 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,48 +438,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAE4181-6C23-4292-8D3C-9D40757681D1}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>42282</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>42282</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42282</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Projects\excel4j\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204688A4-1FEF-4C4F-989A-D6B1CC810948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD02356-7CEB-4DAC-8A45-381CCD6B677F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" xr2:uid="{DBF98241-6752-4E53-86CB-DFFA1B9A0C84}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DBF98241-6752-4E53-86CB-DFFA1B9A0C84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -66,16 +66,34 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>1;2;3;4</t>
+  </si>
+  <si>
+    <t>1;2;3;5</t>
+  </si>
+  <si>
+    <t>1;2;3;6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -438,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAE4181-6C23-4292-8D3C-9D40757681D1}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,7 +469,7 @@
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,8 +482,11 @@
       <c r="D1" t="s">
         <v>9</v>
       </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -478,8 +499,11 @@
       <c r="D2" s="1">
         <v>42282</v>
       </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -492,8 +516,11 @@
       <c r="D3" s="1">
         <v>42282</v>
       </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -506,8 +533,12 @@
       <c r="D4" s="1">
         <v>42282</v>
       </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Projects\excel4j\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD02356-7CEB-4DAC-8A45-381CCD6B677F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4827AD36-8A8E-4BD3-B50E-7AAA3EE35095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DBF98241-6752-4E53-86CB-DFFA1B9A0C84}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -71,13 +71,10 @@
     <t>List</t>
   </si>
   <si>
-    <t>1;2;3;4</t>
-  </si>
-  <si>
-    <t>1;2;3;5</t>
-  </si>
-  <si>
-    <t>1;2;3;6</t>
+    <t>ayush;deepanshu;aryan;sumit</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
 </sst>
 </file>
@@ -456,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAE4181-6C23-4292-8D3C-9D40757681D1}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,7 +466,7 @@
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,8 +482,11 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -502,8 +502,11 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -517,10 +520,13 @@
         <v>42282</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -534,7 +540,10 @@
         <v>42282</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
